--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/10/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.143</v>
+        <v>-12.26000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.5852</v>
+        <v>-12.6506</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.273299999999998</v>
+        <v>-7.372100000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.425199999999995</v>
+        <v>-8.469199999999995</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,13 +706,13 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.39879999999999</v>
+        <v>-14.3757</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.1599</v>
+        <v>16.2139</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.7065</v>
+        <v>16.47099999999999</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.624699999999997</v>
+        <v>-8.898899999999996</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.185900000000004</v>
+        <v>-8.173800000000005</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.262099999999999</v>
+        <v>-7.291900000000001</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.61730000000001</v>
+        <v>-12.6984</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.0921</v>
+        <v>-11.12940000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.0055</v>
+        <v>-13.2277</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.132700000000003</v>
+        <v>-7.963000000000002</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.87930000000001</v>
+        <v>16.19380000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.5924</v>
+        <v>-12.4659</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.31</v>
+        <v>-8.346900000000003</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.766599999999999</v>
+        <v>-7.852400000000001</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.13819999999999</v>
+        <v>17.13909999999998</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.641299999999998</v>
+        <v>-8.499199999999995</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4411</v>
+        <v>16.63099999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.320100000000002</v>
+        <v>-7.590799999999998</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.9942</v>
+        <v>-11.0812</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.0276</v>
+        <v>-14.36729999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.7283</v>
+        <v>-12.1515</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.807199999999999</v>
+        <v>-7.794900000000001</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.590700000000004</v>
+        <v>-6.669499999999998</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.298000000000006</v>
+        <v>-6.195100000000005</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.663100000000004</v>
+        <v>-8.698400000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.543200000000004</v>
+        <v>-6.433200000000004</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.00810000000002</v>
+        <v>17.97040000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.495999999999995</v>
+        <v>-8.259799999999997</v>
       </c>
       <c r="E97" t="n">
-        <v>16.3235</v>
+        <v>16.34569999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.2072</v>
+        <v>-12.6215</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
